--- a/01 - Persistance des données/2 - Mettre en place une BDD/03 - Remplir les tables/stagiaireAfpa.xlsx
+++ b/01 - Persistance des données/2 - Mettre en place une BDD/03 - Remplir les tables/stagiaireAfpa.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="129">
   <si>
     <t>adresse</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>idVille</t>
+  </si>
+  <si>
+    <t>calas</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2353,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="T2" t="str">
-        <f>"INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES ("&amp;A2&amp;","""&amp;B2&amp;""","""&amp;C2&amp;""","""&amp;D2&amp;""","""&amp;E2&amp;""","&amp;G2&amp;","""&amp;H2&amp;""","""&amp;O2&amp;""","""&amp;J2&amp;""","""&amp;P2&amp;""","&amp;Q2&amp;","&amp;R2&amp;","&amp;S2&amp;");"</f>
+        <f>"INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES ("&amp;A2&amp;","""&amp;B2&amp;""","""&amp;C2&amp;""","""&amp;D2&amp;""","""&amp;E2&amp;""","&amp;G2&amp;","""&amp;H2&amp;""","""&amp;O2&amp;""","""&amp;J2&amp;""","""&amp;P2&amp;""","&amp;VLOOKUP(L2,Formations!$A$1:$B$6,2,0)&amp;","&amp;VLOOKUP(M2,Formateurs!$B$2:$C$5,2,0)&amp;","&amp;IF(ISNA(VLOOKUP(N2,Hebergements!$A$2:$B$3,2,0)),"",VLOOKUP(N2,Hebergements!$A$2:$B$3,2,0))&amp;");"</f>
         <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (1,"roblin","lea","12,bd de la liberte","calais",62100,"21345678","2014-09-01","F","1995-01-14",5,2,2);</v>
       </c>
     </row>
@@ -3671,6 +3674,24 @@
       <c r="T19" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `stagiaires`(`idStagiaire`, `nomStagiaire`, `prenomStagiaire`, `adresseStagiaire`, `ville`, `codePostal`, `telStagiaire`, `dateEntree`, `SexeStagiaire`, `dateNaissance`, `idFormation`, `idFormateur`, `idHebergement`) VALUES (18,"dewa","leon","121,allee des eglantines","dunkerque",59100,"28-30-87-90","2014-09-01","M","1997-04-03",2,4,1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(ISNA(VLOOKUP(E24,$E$2:$E$19,1,0)),"",VLOOKUP(E24,$E$2:$E$19,1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(ISNA(VLOOKUP(E25,$E$2:$E$19,1,0)),"",VLOOKUP(E25,$E$2:$E$19,1,0))</f>
+        <v>calais</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -4340,15 +4361,15 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B30" ca="1" si="0">RANDBETWEEN(1,18)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C30" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D30" ca="1" si="2">RANDBETWEEN(0,20)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4368,11 +4389,11 @@
       </c>
       <c r="N2" s="15">
         <f ca="1">TODAY()</f>
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="O2" s="15">
         <f ca="1">$N$2+RANDBETWEEN(1,800)</f>
-        <v>44944</v>
+        <v>44492</v>
       </c>
       <c r="P2" t="s">
         <v>126</v>
@@ -4384,15 +4405,15 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4412,7 +4433,7 @@
       </c>
       <c r="O3" s="15">
         <f t="shared" ref="O3:O22" ca="1" si="4">$N$2+RANDBETWEEN(1,800)</f>
-        <v>44757</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4421,15 +4442,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -4449,7 +4470,7 @@
       </c>
       <c r="O4" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44725</v>
+        <v>45179</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -4458,15 +4479,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -4486,7 +4507,7 @@
       </c>
       <c r="O5" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45274</v>
+        <v>44843</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4495,15 +4516,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4523,7 +4544,7 @@
       </c>
       <c r="O6" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44670</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4532,7 +4553,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
@@ -4540,7 +4561,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -4560,7 +4581,7 @@
       </c>
       <c r="O7" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45241</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4569,7 +4590,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
@@ -4577,7 +4598,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -4597,7 +4618,7 @@
       </c>
       <c r="O8" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44499</v>
+        <v>44605</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4606,7 +4627,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
@@ -4614,7 +4635,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -4634,7 +4655,7 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44605</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4643,7 +4664,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
@@ -4651,7 +4672,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -4671,7 +4692,7 @@
       </c>
       <c r="O10" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44577</v>
+        <v>45161</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4680,15 +4701,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -4708,7 +4729,7 @@
       </c>
       <c r="O11" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45190</v>
+        <v>44933</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4717,7 +4738,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
@@ -4725,7 +4746,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -4745,7 +4766,7 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44878</v>
+        <v>44513</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4754,15 +4775,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -4782,7 +4803,7 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>45216</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4791,7 +4812,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
@@ -4799,7 +4820,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -4819,7 +4840,7 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44528</v>
+        <v>45217</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4828,15 +4849,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -4856,7 +4877,7 @@
       </c>
       <c r="O15" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44617</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4865,7 +4886,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
@@ -4873,7 +4894,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -4893,7 +4914,7 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44847</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -4902,7 +4923,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
@@ -4910,7 +4931,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -4930,7 +4951,7 @@
       </c>
       <c r="O17" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44542</v>
+        <v>45222</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -4939,15 +4960,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>18</v>
@@ -4967,7 +4988,7 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44966</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -4976,15 +4997,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -5004,7 +5025,7 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44973</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -5013,7 +5034,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
@@ -5021,7 +5042,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -5041,7 +5062,7 @@
       </c>
       <c r="O20" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44695</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -5050,15 +5071,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>23</v>
@@ -5078,7 +5099,7 @@
       </c>
       <c r="O21" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44897</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -5087,7 +5108,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
@@ -5095,7 +5116,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>24</v>
@@ -5115,7 +5136,7 @@
       </c>
       <c r="O22" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>44863</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -5124,11 +5145,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
@@ -5157,15 +5178,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24">
         <v>26</v>
@@ -5190,7 +5211,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
@@ -5198,7 +5219,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>27</v>
@@ -5223,7 +5244,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
@@ -5231,7 +5252,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>29</v>
@@ -5256,15 +5277,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -5273,15 +5294,15 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -5290,15 +5311,15 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -5307,7 +5328,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
@@ -5315,7 +5336,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
